--- a/Homework/9/phonebook.xlsx
+++ b/Homework/9/phonebook.xlsx
@@ -49,7 +49,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -408,7 +408,7 @@
     <col min="3" max="3" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>432453253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -430,7 +430,7 @@
         <v>4576576587</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
